--- a/natmiOut/OldD2/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.7701551366914</v>
+        <v>23.301814</v>
       </c>
       <c r="H2">
-        <v>22.7701551366914</v>
+        <v>46.603628</v>
       </c>
       <c r="I2">
-        <v>0.1570769858068151</v>
+        <v>0.1534311298773869</v>
       </c>
       <c r="J2">
-        <v>0.1570769858068151</v>
+        <v>0.1083150512651137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N2">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O2">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P2">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q2">
-        <v>37.91587572762457</v>
+        <v>39.71047761524866</v>
       </c>
       <c r="R2">
-        <v>37.91587572762457</v>
+        <v>238.262865691492</v>
       </c>
       <c r="S2">
-        <v>0.0606749967867563</v>
+        <v>0.04825403647222025</v>
       </c>
       <c r="T2">
-        <v>0.0606749967867563</v>
+        <v>0.03406504559025293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7701551366914</v>
+        <v>23.301814</v>
       </c>
       <c r="H3">
-        <v>22.7701551366914</v>
+        <v>46.603628</v>
       </c>
       <c r="I3">
-        <v>0.1570769858068151</v>
+        <v>0.1534311298773869</v>
       </c>
       <c r="J3">
-        <v>0.1570769858068151</v>
+        <v>0.1083150512651137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N3">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O3">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P3">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q3">
-        <v>60.24171453072417</v>
+        <v>86.55509297563665</v>
       </c>
       <c r="R3">
-        <v>60.24171453072417</v>
+        <v>519.33055785382</v>
       </c>
       <c r="S3">
-        <v>0.09640198902005884</v>
+        <v>0.1051770934051666</v>
       </c>
       <c r="T3">
-        <v>0.09640198902005884</v>
+        <v>0.07425000567486074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.92454728835903</v>
+        <v>3.593944666666667</v>
       </c>
       <c r="H4">
-        <v>2.92454728835903</v>
+        <v>10.781834</v>
       </c>
       <c r="I4">
-        <v>0.02017461322275738</v>
+        <v>0.02366438041791404</v>
       </c>
       <c r="J4">
-        <v>0.02017461322275738</v>
+        <v>0.02505888388006929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N4">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O4">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P4">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q4">
-        <v>4.86982942713032</v>
+        <v>6.124727424058444</v>
       </c>
       <c r="R4">
-        <v>4.86982942713032</v>
+        <v>55.122546816526</v>
       </c>
       <c r="S4">
-        <v>0.007792959523493383</v>
+        <v>0.007442439332168509</v>
       </c>
       <c r="T4">
-        <v>0.007792959523493383</v>
+        <v>0.007881010181364832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.92454728835903</v>
+        <v>3.593944666666667</v>
       </c>
       <c r="H5">
-        <v>2.92454728835903</v>
+        <v>10.781834</v>
       </c>
       <c r="I5">
-        <v>0.02017461322275738</v>
+        <v>0.02366438041791404</v>
       </c>
       <c r="J5">
-        <v>0.02017461322275738</v>
+        <v>0.02505888388006929</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N5">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O5">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P5">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q5">
-        <v>7.737309729305946</v>
+        <v>13.34978533313444</v>
       </c>
       <c r="R5">
-        <v>7.737309729305946</v>
+        <v>120.14806799821</v>
       </c>
       <c r="S5">
-        <v>0.01238165369926399</v>
+        <v>0.01622194108574553</v>
       </c>
       <c r="T5">
-        <v>0.01238165369926399</v>
+        <v>0.01717787369870446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.764401013847</v>
+        <v>33.35980533333333</v>
       </c>
       <c r="H6">
-        <v>29.764401013847</v>
+        <v>100.079416</v>
       </c>
       <c r="I6">
-        <v>0.2053258911735171</v>
+        <v>0.2196581186676286</v>
       </c>
       <c r="J6">
-        <v>0.2053258911735171</v>
+        <v>0.2326022144589824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N6">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O6">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P6">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q6">
-        <v>49.5623909092166</v>
+        <v>56.85110193302489</v>
       </c>
       <c r="R6">
-        <v>49.5623909092166</v>
+        <v>511.659917397224</v>
       </c>
       <c r="S6">
-        <v>0.07931236853827188</v>
+        <v>0.06908240119249233</v>
       </c>
       <c r="T6">
-        <v>0.07931236853827188</v>
+        <v>0.07315331477381737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.764401013847</v>
+        <v>33.35980533333333</v>
       </c>
       <c r="H7">
-        <v>29.764401013847</v>
+        <v>100.079416</v>
       </c>
       <c r="I7">
-        <v>0.2053258911735171</v>
+        <v>0.2196581186676286</v>
       </c>
       <c r="J7">
-        <v>0.2053258911735171</v>
+        <v>0.2326022144589824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N7">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O7">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P7">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q7">
-        <v>78.74599616428907</v>
+        <v>123.9157197064489</v>
       </c>
       <c r="R7">
-        <v>78.74599616428907</v>
+        <v>1115.24147735804</v>
       </c>
       <c r="S7">
-        <v>0.1260135226352452</v>
+        <v>0.1505757174751363</v>
       </c>
       <c r="T7">
-        <v>0.1260135226352452</v>
+        <v>0.159448899685165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.7595733674197</v>
+        <v>71.394301</v>
       </c>
       <c r="H8">
-        <v>70.7595733674197</v>
+        <v>214.182903</v>
       </c>
       <c r="I8">
-        <v>0.4881258135839602</v>
+        <v>0.470096803160314</v>
       </c>
       <c r="J8">
-        <v>0.4881258135839602</v>
+        <v>0.4977988434410273</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N8">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O8">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P8">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q8">
-        <v>117.8257756362681</v>
+        <v>121.6687160800797</v>
       </c>
       <c r="R8">
-        <v>117.8257756362681</v>
+        <v>1095.018444720717</v>
       </c>
       <c r="S8">
-        <v>0.1885510599698214</v>
+        <v>0.1478452795289959</v>
       </c>
       <c r="T8">
-        <v>0.1885510599698214</v>
+        <v>0.1565575614702727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.7595733674197</v>
+        <v>71.394301</v>
       </c>
       <c r="H9">
-        <v>70.7595733674197</v>
+        <v>214.182903</v>
       </c>
       <c r="I9">
-        <v>0.4881258135839602</v>
+        <v>0.470096803160314</v>
       </c>
       <c r="J9">
-        <v>0.4881258135839602</v>
+        <v>0.4977988434410273</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N9">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O9">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P9">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q9">
-        <v>187.204610312344</v>
+        <v>265.1956779410216</v>
       </c>
       <c r="R9">
-        <v>187.204610312344</v>
+        <v>2386.761101469195</v>
       </c>
       <c r="S9">
-        <v>0.2995747536141388</v>
+        <v>0.3222515236313181</v>
       </c>
       <c r="T9">
-        <v>0.2995747536141388</v>
+        <v>0.3412412819707545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.6905156963132</v>
+        <v>18.168918</v>
       </c>
       <c r="H10">
-        <v>16.6905156963132</v>
+        <v>54.506754</v>
       </c>
       <c r="I10">
-        <v>0.1151373752791724</v>
+        <v>0.1196335022410527</v>
       </c>
       <c r="J10">
-        <v>0.1151373752791724</v>
+        <v>0.1266833100162275</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N10">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O10">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P10">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q10">
-        <v>27.79232355565462</v>
+        <v>30.963100620934</v>
       </c>
       <c r="R10">
-        <v>27.79232355565462</v>
+        <v>278.667905588406</v>
       </c>
       <c r="S10">
-        <v>0.04447475127700241</v>
+        <v>0.03762469444794209</v>
       </c>
       <c r="T10">
-        <v>0.04447475127700241</v>
+        <v>0.03984185651783809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.6905156963132</v>
+        <v>18.168918</v>
       </c>
       <c r="H11">
-        <v>16.6905156963132</v>
+        <v>54.506754</v>
       </c>
       <c r="I11">
-        <v>0.1151373752791724</v>
+        <v>0.1196335022410527</v>
       </c>
       <c r="J11">
-        <v>0.1151373752791724</v>
+        <v>0.1266833100162275</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N11">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O11">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P11">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q11">
-        <v>44.15715553591828</v>
+        <v>67.48883957088999</v>
       </c>
       <c r="R11">
-        <v>44.15715553591828</v>
+        <v>607.39955613801</v>
       </c>
       <c r="S11">
-        <v>0.07066262400217002</v>
+        <v>0.08200880779311057</v>
       </c>
       <c r="T11">
-        <v>0.07066262400217002</v>
+        <v>0.08684145349838941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.0525599764745</v>
+        <v>2.052705</v>
       </c>
       <c r="H12">
-        <v>2.0525599764745</v>
+        <v>4.10541</v>
       </c>
       <c r="I12">
-        <v>0.01415932093377777</v>
+        <v>0.01351606563570379</v>
       </c>
       <c r="J12">
-        <v>0.01415932093377777</v>
+        <v>0.009541696938579768</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.66515667109038</v>
+        <v>1.704179666666667</v>
       </c>
       <c r="N12">
-        <v>1.66515667109038</v>
+        <v>5.112539</v>
       </c>
       <c r="O12">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="P12">
-        <v>0.3862755353695091</v>
+        <v>0.3144996488703566</v>
       </c>
       <c r="Q12">
-        <v>3.417833937639627</v>
+        <v>3.498178122665</v>
       </c>
       <c r="R12">
-        <v>3.417833937639627</v>
+        <v>20.98906873599</v>
       </c>
       <c r="S12">
-        <v>0.005469399274163705</v>
+        <v>0.004250797896537535</v>
       </c>
       <c r="T12">
-        <v>0.005469399274163705</v>
+        <v>0.003000860336810694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.0525599764745</v>
+        <v>2.052705</v>
       </c>
       <c r="H13">
-        <v>2.0525599764745</v>
+        <v>4.10541</v>
       </c>
       <c r="I13">
-        <v>0.01415932093377777</v>
+        <v>0.01351606563570379</v>
       </c>
       <c r="J13">
-        <v>0.01415932093377777</v>
+        <v>0.009541696938579768</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64564357023865</v>
+        <v>3.714521666666666</v>
       </c>
       <c r="N13">
-        <v>2.64564357023865</v>
+        <v>11.143565</v>
       </c>
       <c r="O13">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296434</v>
       </c>
       <c r="P13">
-        <v>0.6137244646304909</v>
+        <v>0.6855003511296432</v>
       </c>
       <c r="Q13">
-        <v>5.430342104288955</v>
+        <v>7.624817197774999</v>
       </c>
       <c r="R13">
-        <v>5.430342104288955</v>
+        <v>45.74890318665</v>
       </c>
       <c r="S13">
-        <v>0.008689921659614063</v>
+        <v>0.009265267739166253</v>
       </c>
       <c r="T13">
-        <v>0.008689921659614063</v>
+        <v>0.006540836601769073</v>
       </c>
     </row>
   </sheetData>
